--- a/Jan_2024.xlsx
+++ b/Jan_2024.xlsx
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>122.22</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>40</v>
+        <v>36.364</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>1.491</v>
@@ -846,9 +846,13 @@
           <t>05/12</t>
         </is>
       </c>
-      <c r="J10" s="4" t="n"/>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t>11/01</t>
+        </is>
+      </c>
       <c r="K10" s="4" t="n">
-        <v>337.09</v>
+        <v>347.97</v>
       </c>
     </row>
     <row r="11">
@@ -898,13 +902,13 @@
         </is>
       </c>
       <c r="C12" s="4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>65.52</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>50</v>
+        <v>46.154</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>1.317</v>
@@ -916,9 +920,13 @@
         </is>
       </c>
       <c r="I12" s="4" t="n"/>
-      <c r="J12" s="4" t="n"/>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>18/01</t>
+        </is>
+      </c>
       <c r="K12" s="4" t="n">
-        <v>188.96</v>
+        <v>189.97</v>
       </c>
     </row>
     <row r="13">
@@ -1048,33 +1056,43 @@
       <c r="K16" s="4" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>AEP</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>.SPX.NDX</t>
         </is>
       </c>
-      <c r="C17" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>-30.38</v>
-      </c>
-      <c r="E17" s="4" t="n">
-        <v>0</v>
+      <c r="C17" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>14.286</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>0</v>
+        <v>1.646</v>
       </c>
       <c r="G17" s="4" t="n"/>
-      <c r="H17" s="4" t="n"/>
+      <c r="H17" s="4" t="inlineStr">
+        <is>
+          <t>11/01</t>
+        </is>
+      </c>
       <c r="I17" s="4" t="n"/>
-      <c r="J17" s="4" t="n"/>
-      <c r="K17" s="4" t="n"/>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>30/01</t>
+        </is>
+      </c>
+      <c r="K17" s="4" t="n">
+        <v>78.44</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -1149,19 +1167,29 @@
         <v>11</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>64.95</v>
+        <v>72.75</v>
       </c>
       <c r="E20" s="4" t="n">
         <v>36.364</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>1.344</v>
+        <v>1.402</v>
       </c>
       <c r="G20" s="4" t="n"/>
-      <c r="H20" s="4" t="n"/>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>10/01</t>
+        </is>
+      </c>
       <c r="I20" s="4" t="n"/>
-      <c r="J20" s="4" t="n"/>
-      <c r="K20" s="4" t="n"/>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>19/01</t>
+        </is>
+      </c>
+      <c r="K20" s="4" t="n">
+        <v>68.83</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1990,13 +2018,13 @@
         </is>
       </c>
       <c r="C46" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>16.83</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>57.143</v>
+        <v>50</v>
       </c>
       <c r="F46" s="4" t="n">
         <v>1.153</v>
@@ -2008,9 +2036,13 @@
         </is>
       </c>
       <c r="I46" s="4" t="n"/>
-      <c r="J46" s="4" t="n"/>
+      <c r="J46" s="4" t="inlineStr">
+        <is>
+          <t>18/01</t>
+        </is>
+      </c>
       <c r="K46" s="4" t="n">
-        <v>703.37</v>
+        <v>744.53</v>
       </c>
     </row>
     <row r="47">
@@ -2112,13 +2144,13 @@
         </is>
       </c>
       <c r="C50" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>118.83</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>29.412</v>
+        <v>27.778</v>
       </c>
       <c r="F50" s="4" t="n">
         <v>1.51</v>
@@ -2132,11 +2164,11 @@
       <c r="I50" s="4" t="n"/>
       <c r="J50" s="4" t="inlineStr">
         <is>
-          <t>08/12</t>
+          <t>11/01</t>
         </is>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1049.01</v>
+        <v>1099.98</v>
       </c>
     </row>
     <row r="51">
@@ -2867,24 +2899,24 @@
       <c r="K71" s="4" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="5" t="inlineStr">
+      <c r="A72" s="4" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="B72" s="5" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C72" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D72" s="5" t="n">
+      <c r="B72" s="4" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D72" s="4" t="n">
         <v>220.57</v>
       </c>
-      <c r="E72" s="5" t="n">
-        <v>57.143</v>
+      <c r="E72" s="4" t="n">
+        <v>53.333</v>
       </c>
       <c r="F72" s="4" t="n">
         <v>1.795</v>
@@ -2894,7 +2926,7 @@
           <t>03/11</t>
         </is>
       </c>
-      <c r="H72" s="5" t="inlineStr">
+      <c r="H72" s="4" t="inlineStr">
         <is>
           <t>05/01</t>
         </is>
@@ -2902,11 +2934,11 @@
       <c r="I72" s="4" t="n"/>
       <c r="J72" s="4" t="inlineStr">
         <is>
-          <t>24/08</t>
+          <t>10/01</t>
         </is>
       </c>
       <c r="K72" s="4" t="n">
-        <v>196.35</v>
+        <v>201.97</v>
       </c>
     </row>
     <row r="73">
@@ -3273,38 +3305,42 @@
       <c r="K83" s="4" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="5" t="inlineStr">
+      <c r="A84" s="4" t="inlineStr">
         <is>
           <t>CBRE</t>
         </is>
       </c>
-      <c r="B84" s="5" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C84" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D84" s="5" t="n">
+      <c r="B84" s="4" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C84" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D84" s="4" t="n">
         <v>53.59</v>
       </c>
-      <c r="E84" s="5" t="n">
-        <v>42.857</v>
+      <c r="E84" s="4" t="n">
+        <v>40</v>
       </c>
       <c r="F84" s="4" t="n">
         <v>1.215</v>
       </c>
       <c r="G84" s="4" t="n"/>
-      <c r="H84" s="5" t="inlineStr">
+      <c r="H84" s="4" t="inlineStr">
         <is>
           <t>05/01</t>
         </is>
       </c>
       <c r="I84" s="4" t="n"/>
-      <c r="J84" s="4" t="n"/>
+      <c r="J84" s="4" t="inlineStr">
+        <is>
+          <t>22/01</t>
+        </is>
+      </c>
       <c r="K84" s="4" t="n">
-        <v>87.05</v>
+        <v>87.41</v>
       </c>
     </row>
     <row r="85">
@@ -3416,13 +3452,13 @@
         </is>
       </c>
       <c r="C88" s="4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D88" s="4" t="n">
         <v>52.68</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>41.667</v>
+        <v>38.462</v>
       </c>
       <c r="F88" s="4" t="n">
         <v>1.25</v>
@@ -3444,11 +3480,11 @@
       </c>
       <c r="J88" s="4" t="inlineStr">
         <is>
-          <t>11/12</t>
+          <t>10/01</t>
         </is>
       </c>
       <c r="K88" s="4" t="n">
-        <v>272.37</v>
+        <v>263.26</v>
       </c>
     </row>
     <row r="89">
@@ -4527,13 +4563,13 @@
         </is>
       </c>
       <c r="C121" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" s="4" t="n">
         <v>1.29</v>
       </c>
       <c r="E121" s="4" t="n">
-        <v>44.444</v>
+        <v>40</v>
       </c>
       <c r="F121" s="4" t="n">
         <v>1.013</v>
@@ -4545,9 +4581,13 @@
         </is>
       </c>
       <c r="I121" s="4" t="n"/>
-      <c r="J121" s="4" t="n"/>
+      <c r="J121" s="4" t="inlineStr">
+        <is>
+          <t>13/01</t>
+        </is>
+      </c>
       <c r="K121" s="4" t="n">
-        <v>582.38</v>
+        <v>593</v>
       </c>
     </row>
     <row r="122">
@@ -5100,28 +5140,28 @@
         <v>13</v>
       </c>
       <c r="D139" s="4" t="n">
-        <v>60.04</v>
+        <v>63.76</v>
       </c>
       <c r="E139" s="4" t="n">
-        <v>23.077</v>
+        <v>30.769</v>
       </c>
       <c r="F139" s="4" t="n">
-        <v>1.247</v>
+        <v>1.262</v>
       </c>
       <c r="G139" s="4" t="inlineStr">
         <is>
-          <t>02/08</t>
+          <t>13/01</t>
         </is>
       </c>
       <c r="H139" s="4" t="n"/>
       <c r="I139" s="4" t="inlineStr">
         <is>
-          <t>20/10</t>
+          <t>17/01</t>
         </is>
       </c>
       <c r="J139" s="4" t="n"/>
       <c r="K139" s="4" t="n">
-        <v>83.25</v>
+        <v>90.34</v>
       </c>
     </row>
     <row r="140">
@@ -5392,31 +5432,31 @@
         </is>
       </c>
       <c r="C148" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D148" s="4" t="n">
-        <v>74.93000000000001</v>
+        <v>37.09</v>
       </c>
       <c r="E148" s="4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F148" s="4" t="n">
-        <v>2.047</v>
+        <v>1.323</v>
       </c>
       <c r="G148" s="4" t="n"/>
       <c r="H148" s="4" t="inlineStr">
         <is>
-          <t>26/07</t>
+          <t>16/01</t>
         </is>
       </c>
       <c r="I148" s="4" t="n"/>
       <c r="J148" s="4" t="inlineStr">
         <is>
-          <t>02/08</t>
+          <t>25/01</t>
         </is>
       </c>
       <c r="K148" s="4" t="n">
-        <v>102.39</v>
+        <v>107.43</v>
       </c>
     </row>
     <row r="149">
@@ -5431,20 +5471,20 @@
         </is>
       </c>
       <c r="C149" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" s="4" t="n">
-        <v>235.18</v>
+        <v>255.34</v>
       </c>
       <c r="E149" s="4" t="n">
-        <v>25</v>
+        <v>33.333</v>
       </c>
       <c r="F149" s="4" t="n">
-        <v>2.602</v>
+        <v>2.739</v>
       </c>
       <c r="G149" s="4" t="inlineStr">
         <is>
-          <t>12/10</t>
+          <t>26/01</t>
         </is>
       </c>
       <c r="H149" s="4" t="inlineStr">
@@ -5459,7 +5499,7 @@
       </c>
       <c r="J149" s="4" t="n"/>
       <c r="K149" s="4" t="n">
-        <v>46.75</v>
+        <v>42.62</v>
       </c>
     </row>
     <row r="150">
@@ -5593,27 +5633,27 @@
       <c r="K153" s="4" t="n"/>
     </row>
     <row r="154">
-      <c r="A154" s="4" t="inlineStr">
+      <c r="A154" s="5" t="inlineStr">
         <is>
           <t>ECL</t>
         </is>
       </c>
-      <c r="B154" s="4" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C154" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D154" s="4" t="n">
-        <v>119.41</v>
-      </c>
-      <c r="E154" s="4" t="n">
-        <v>44.444</v>
+      <c r="B154" s="5" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C154" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D154" s="5" t="n">
+        <v>241.33</v>
+      </c>
+      <c r="E154" s="5" t="n">
+        <v>50</v>
       </c>
       <c r="F154" s="4" t="n">
-        <v>3.809</v>
+        <v>6.677</v>
       </c>
       <c r="G154" s="4" t="inlineStr">
         <is>
@@ -5622,7 +5662,7 @@
       </c>
       <c r="H154" s="4" t="inlineStr">
         <is>
-          <t>29/07</t>
+          <t>24/01</t>
         </is>
       </c>
       <c r="I154" s="4" t="inlineStr">
@@ -5630,13 +5670,13 @@
           <t>04/12</t>
         </is>
       </c>
-      <c r="J154" s="4" t="inlineStr">
-        <is>
-          <t>09/08</t>
+      <c r="J154" s="5" t="inlineStr">
+        <is>
+          <t>30/01</t>
         </is>
       </c>
       <c r="K154" s="4" t="n">
-        <v>191.44</v>
+        <v>200.74</v>
       </c>
     </row>
     <row r="155">
@@ -5842,38 +5882,42 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="5" t="inlineStr">
+      <c r="A161" s="4" t="inlineStr">
         <is>
           <t>ENPH</t>
         </is>
       </c>
-      <c r="B161" s="5" t="inlineStr">
+      <c r="B161" s="4" t="inlineStr">
         <is>
           <t>.SPX.NDX</t>
         </is>
       </c>
-      <c r="C161" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D161" s="5" t="n">
+      <c r="C161" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D161" s="4" t="n">
         <v>339.09</v>
       </c>
-      <c r="E161" s="5" t="n">
-        <v>30</v>
+      <c r="E161" s="4" t="n">
+        <v>27.273</v>
       </c>
       <c r="F161" s="4" t="n">
         <v>2.032</v>
       </c>
       <c r="G161" s="4" t="n"/>
-      <c r="H161" s="5" t="inlineStr">
+      <c r="H161" s="4" t="inlineStr">
         <is>
           <t>05/01</t>
         </is>
       </c>
       <c r="I161" s="4" t="n"/>
-      <c r="J161" s="4" t="n"/>
+      <c r="J161" s="4" t="inlineStr">
+        <is>
+          <t>23/01</t>
+        </is>
+      </c>
       <c r="K161" s="4" t="n">
-        <v>115.39</v>
+        <v>111.3</v>
       </c>
     </row>
     <row r="162">
@@ -6231,14 +6275,18 @@
           <t>29/07</t>
         </is>
       </c>
-      <c r="I172" s="4" t="n"/>
+      <c r="I172" s="4" t="inlineStr">
+        <is>
+          <t>11/01</t>
+        </is>
+      </c>
       <c r="J172" s="4" t="inlineStr">
         <is>
           <t>23/08</t>
         </is>
       </c>
       <c r="K172" s="4" t="n">
-        <v>35.85</v>
+        <v>36.21</v>
       </c>
     </row>
     <row r="173">
@@ -6504,9 +6552,13 @@
           <t>04/10</t>
         </is>
       </c>
-      <c r="J180" s="4" t="n"/>
+      <c r="J180" s="4" t="inlineStr">
+        <is>
+          <t>19/01</t>
+        </is>
+      </c>
       <c r="K180" s="4" t="n">
-        <v>246.25</v>
+        <v>246.53</v>
       </c>
     </row>
     <row r="181">
@@ -6849,30 +6901,30 @@
       <c r="K191" s="4" t="n"/>
     </row>
     <row r="192">
-      <c r="A192" s="5" t="inlineStr">
+      <c r="A192" s="4" t="inlineStr">
         <is>
           <t>GD</t>
         </is>
       </c>
-      <c r="B192" s="5" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C192" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D192" s="5" t="n">
+      <c r="B192" s="4" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C192" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D192" s="4" t="n">
         <v>1.28</v>
       </c>
-      <c r="E192" s="5" t="n">
-        <v>50</v>
+      <c r="E192" s="4" t="n">
+        <v>45.455</v>
       </c>
       <c r="F192" s="4" t="n">
         <v>1.015</v>
       </c>
       <c r="G192" s="4" t="n"/>
-      <c r="H192" s="5" t="inlineStr">
+      <c r="H192" s="4" t="inlineStr">
         <is>
           <t>05/01</t>
         </is>
@@ -6880,11 +6932,11 @@
       <c r="I192" s="4" t="n"/>
       <c r="J192" s="4" t="inlineStr">
         <is>
-          <t>29/08</t>
+          <t>13/01</t>
         </is>
       </c>
       <c r="K192" s="4" t="n">
-        <v>253.9</v>
+        <v>254.81</v>
       </c>
     </row>
     <row r="193">
@@ -6931,20 +6983,24 @@
         <v>8</v>
       </c>
       <c r="D194" s="4" t="n">
-        <v>129.99</v>
+        <v>167.69</v>
       </c>
       <c r="E194" s="4" t="n">
-        <v>62.5</v>
+        <v>75</v>
       </c>
       <c r="F194" s="4" t="n">
-        <v>5.49</v>
+        <v>6.792</v>
       </c>
       <c r="G194" s="4" t="inlineStr">
         <is>
           <t>30/11</t>
         </is>
       </c>
-      <c r="H194" s="4" t="n"/>
+      <c r="H194" s="4" t="inlineStr">
+        <is>
+          <t>22/01</t>
+        </is>
+      </c>
       <c r="I194" s="4" t="inlineStr">
         <is>
           <t>18/12</t>
@@ -6952,7 +7008,7 @@
       </c>
       <c r="J194" s="4" t="n"/>
       <c r="K194" s="4" t="n">
-        <v>79.5</v>
+        <v>78.43000000000001</v>
       </c>
     </row>
     <row r="195">
@@ -6970,28 +7026,28 @@
         <v>7</v>
       </c>
       <c r="D195" s="4" t="n">
-        <v>189.88</v>
+        <v>170.68</v>
       </c>
       <c r="E195" s="4" t="n">
         <v>71.429</v>
       </c>
       <c r="F195" s="4" t="n">
-        <v>11.888</v>
+        <v>5.658</v>
       </c>
       <c r="G195" s="4" t="inlineStr">
         <is>
-          <t>12/10</t>
+          <t>23/01</t>
         </is>
       </c>
       <c r="H195" s="4" t="n"/>
       <c r="I195" s="4" t="inlineStr">
         <is>
-          <t>13/10</t>
+          <t>24/01</t>
         </is>
       </c>
       <c r="J195" s="4" t="n"/>
       <c r="K195" s="4" t="n">
-        <v>61.53</v>
+        <v>63.64</v>
       </c>
     </row>
     <row r="196">
@@ -7152,11 +7208,11 @@
       <c r="I200" s="4" t="n"/>
       <c r="J200" s="4" t="inlineStr">
         <is>
-          <t>03/10</t>
+          <t>08/01</t>
         </is>
       </c>
       <c r="K200" s="4" t="n">
-        <v>139.56</v>
+        <v>140.53</v>
       </c>
     </row>
     <row r="201">
@@ -7191,11 +7247,11 @@
       <c r="I201" s="4" t="n"/>
       <c r="J201" s="4" t="inlineStr">
         <is>
-          <t>03/10</t>
+          <t>08/01</t>
         </is>
       </c>
       <c r="K201" s="4" t="n">
-        <v>138.17</v>
+        <v>138.84</v>
       </c>
     </row>
     <row r="202">
@@ -7371,18 +7427,22 @@
         </is>
       </c>
       <c r="C207" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D207" s="4" t="n">
-        <v>181.91</v>
+        <v>122.08</v>
       </c>
       <c r="E207" s="4" t="n">
-        <v>26.667</v>
+        <v>25</v>
       </c>
       <c r="F207" s="4" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="G207" s="4" t="n"/>
+        <v>1.428</v>
+      </c>
+      <c r="G207" s="4" t="inlineStr">
+        <is>
+          <t>23/01</t>
+        </is>
+      </c>
       <c r="H207" s="4" t="inlineStr">
         <is>
           <t>22/09</t>
@@ -7395,7 +7455,7 @@
         </is>
       </c>
       <c r="K207" s="4" t="n">
-        <v>42.03</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="208">
@@ -7497,22 +7557,32 @@
         </is>
       </c>
       <c r="C211" s="4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D211" s="4" t="n">
-        <v>-98.72</v>
+        <v>24.68</v>
       </c>
       <c r="E211" s="4" t="n">
-        <v>22.222</v>
+        <v>27.273</v>
       </c>
       <c r="F211" s="4" t="n">
-        <v>0.397</v>
+        <v>1.12</v>
       </c>
       <c r="G211" s="4" t="n"/>
-      <c r="H211" s="4" t="n"/>
+      <c r="H211" s="4" t="inlineStr">
+        <is>
+          <t>25/01</t>
+        </is>
+      </c>
       <c r="I211" s="4" t="n"/>
-      <c r="J211" s="4" t="n"/>
-      <c r="K211" s="4" t="n"/>
+      <c r="J211" s="4" t="inlineStr">
+        <is>
+          <t>26/01</t>
+        </is>
+      </c>
+      <c r="K211" s="4" t="n">
+        <v>355.3</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="4" t="inlineStr">
@@ -7660,7 +7730,7 @@
       </c>
       <c r="H216" s="4" t="inlineStr">
         <is>
-          <t>29/11</t>
+          <t>08/01</t>
         </is>
       </c>
       <c r="I216" s="4" t="inlineStr">
@@ -7668,9 +7738,13 @@
           <t>28/11</t>
         </is>
       </c>
-      <c r="J216" s="4" t="n"/>
+      <c r="J216" s="4" t="inlineStr">
+        <is>
+          <t>09/01</t>
+        </is>
+      </c>
       <c r="K216" s="4" t="n">
-        <v>69.87</v>
+        <v>72.12</v>
       </c>
     </row>
     <row r="217">
@@ -7916,42 +7990,50 @@
       <c r="K224" s="4" t="n"/>
     </row>
     <row r="225">
-      <c r="A225" s="4" t="inlineStr">
+      <c r="A225" s="5" t="inlineStr">
         <is>
           <t>HWM</t>
         </is>
       </c>
-      <c r="B225" s="4" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C225" s="4" t="n">
+      <c r="B225" s="5" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C225" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="D225" s="4" t="n">
-        <v>316.97</v>
-      </c>
-      <c r="E225" s="4" t="n">
-        <v>36.364</v>
+      <c r="D225" s="5" t="n">
+        <v>394.67</v>
+      </c>
+      <c r="E225" s="5" t="n">
+        <v>45.455</v>
       </c>
       <c r="F225" s="4" t="n">
-        <v>2.261</v>
+        <v>2.57</v>
       </c>
       <c r="G225" s="4" t="inlineStr">
         <is>
           <t>03/11</t>
         </is>
       </c>
-      <c r="H225" s="4" t="n"/>
+      <c r="H225" s="4" t="inlineStr">
+        <is>
+          <t>25/01</t>
+        </is>
+      </c>
       <c r="I225" s="4" t="inlineStr">
         <is>
           <t>29/11</t>
         </is>
       </c>
-      <c r="J225" s="4" t="n"/>
+      <c r="J225" s="5" t="inlineStr">
+        <is>
+          <t>30/01</t>
+        </is>
+      </c>
       <c r="K225" s="4" t="n">
-        <v>51.95</v>
+        <v>55.98</v>
       </c>
     </row>
     <row r="226">
@@ -8345,13 +8427,13 @@
         </is>
       </c>
       <c r="C237" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D237" s="4" t="n">
         <v>34.6</v>
       </c>
       <c r="E237" s="4" t="n">
-        <v>27.273</v>
+        <v>25</v>
       </c>
       <c r="F237" s="4" t="n">
         <v>1.154</v>
@@ -8363,30 +8445,34 @@
         </is>
       </c>
       <c r="I237" s="4" t="n"/>
-      <c r="J237" s="4" t="n"/>
+      <c r="J237" s="4" t="inlineStr">
+        <is>
+          <t>22/01</t>
+        </is>
+      </c>
       <c r="K237" s="4" t="n">
-        <v>220.08</v>
+        <v>217.75</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="5" t="inlineStr">
+      <c r="A238" s="4" t="inlineStr">
         <is>
           <t>IR</t>
         </is>
       </c>
-      <c r="B238" s="5" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C238" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D238" s="5" t="n">
+      <c r="B238" s="4" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C238" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D238" s="4" t="n">
         <v>297.68</v>
       </c>
-      <c r="E238" s="5" t="n">
-        <v>35.294</v>
+      <c r="E238" s="4" t="n">
+        <v>33.333</v>
       </c>
       <c r="F238" s="4" t="n">
         <v>1.928</v>
@@ -8396,7 +8482,7 @@
           <t>03/11</t>
         </is>
       </c>
-      <c r="H238" s="5" t="inlineStr">
+      <c r="H238" s="4" t="inlineStr">
         <is>
           <t>05/01</t>
         </is>
@@ -8408,46 +8494,50 @@
       </c>
       <c r="J238" s="4" t="inlineStr">
         <is>
-          <t>29/09</t>
+          <t>10/01</t>
         </is>
       </c>
       <c r="K238" s="4" t="n">
-        <v>74.8</v>
+        <v>76.29000000000001</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="5" t="inlineStr">
+      <c r="A239" s="4" t="inlineStr">
         <is>
           <t>IRM</t>
         </is>
       </c>
-      <c r="B239" s="5" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C239" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D239" s="5" t="n">
+      <c r="B239" s="4" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C239" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D239" s="4" t="n">
         <v>215.37</v>
       </c>
-      <c r="E239" s="5" t="n">
-        <v>54.545</v>
+      <c r="E239" s="4" t="n">
+        <v>50</v>
       </c>
       <c r="F239" s="4" t="n">
         <v>2.427</v>
       </c>
       <c r="G239" s="4" t="n"/>
-      <c r="H239" s="5" t="inlineStr">
+      <c r="H239" s="4" t="inlineStr">
         <is>
           <t>05/01</t>
         </is>
       </c>
       <c r="I239" s="4" t="n"/>
-      <c r="J239" s="4" t="n"/>
+      <c r="J239" s="4" t="inlineStr">
+        <is>
+          <t>23/01</t>
+        </is>
+      </c>
       <c r="K239" s="4" t="n">
-        <v>66.75</v>
+        <v>67.89</v>
       </c>
     </row>
     <row r="240">
@@ -9139,9 +9229,13 @@
         </is>
       </c>
       <c r="I261" s="4" t="n"/>
-      <c r="J261" s="4" t="n"/>
+      <c r="J261" s="4" t="inlineStr">
+        <is>
+          <t>29/01</t>
+        </is>
+      </c>
       <c r="K261" s="4" t="n">
-        <v>76.52</v>
+        <v>72.95</v>
       </c>
     </row>
     <row r="262">
@@ -9602,13 +9696,13 @@
         </is>
       </c>
       <c r="C276" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D276" s="4" t="n">
         <v>37.73</v>
       </c>
       <c r="E276" s="4" t="n">
-        <v>60</v>
+        <v>54.545</v>
       </c>
       <c r="F276" s="4" t="n">
         <v>1.231</v>
@@ -9620,9 +9714,13 @@
         </is>
       </c>
       <c r="I276" s="4" t="n"/>
-      <c r="J276" s="4" t="n"/>
+      <c r="J276" s="4" t="inlineStr">
+        <is>
+          <t>10/01</t>
+        </is>
+      </c>
       <c r="K276" s="4" t="n">
-        <v>211.22</v>
+        <v>220.21</v>
       </c>
     </row>
     <row r="277">
@@ -9637,27 +9735,31 @@
         </is>
       </c>
       <c r="C277" s="4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D277" s="4" t="n">
-        <v>76.48</v>
+        <v>53.21</v>
       </c>
       <c r="E277" s="4" t="n">
-        <v>23.077</v>
+        <v>21.429</v>
       </c>
       <c r="F277" s="4" t="n">
-        <v>1.133</v>
+        <v>1.089</v>
       </c>
       <c r="G277" s="4" t="n"/>
       <c r="H277" s="4" t="inlineStr">
         <is>
-          <t>03/01</t>
+          <t>26/01</t>
         </is>
       </c>
       <c r="I277" s="4" t="n"/>
-      <c r="J277" s="4" t="n"/>
+      <c r="J277" s="4" t="inlineStr">
+        <is>
+          <t>11/01</t>
+        </is>
+      </c>
       <c r="K277" s="4" t="n">
-        <v>736.9299999999999</v>
+        <v>839.04</v>
       </c>
     </row>
     <row r="278">
@@ -9719,10 +9821,16 @@
         <v>1.747</v>
       </c>
       <c r="G279" s="4" t="n"/>
-      <c r="H279" s="4" t="n"/>
+      <c r="H279" s="4" t="inlineStr">
+        <is>
+          <t>26/01</t>
+        </is>
+      </c>
       <c r="I279" s="4" t="n"/>
       <c r="J279" s="4" t="n"/>
-      <c r="K279" s="4" t="n"/>
+      <c r="K279" s="4" t="n">
+        <v>30.09</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="4" t="inlineStr">
@@ -9736,31 +9844,39 @@
         </is>
       </c>
       <c r="C280" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D280" s="4" t="n">
-        <v>157.17</v>
+        <v>116.67</v>
       </c>
       <c r="E280" s="4" t="n">
-        <v>50</v>
+        <v>44.444</v>
       </c>
       <c r="F280" s="4" t="n">
-        <v>1.901</v>
+        <v>1.543</v>
       </c>
       <c r="G280" s="4" t="inlineStr">
         <is>
           <t>01/09</t>
         </is>
       </c>
-      <c r="H280" s="4" t="n"/>
+      <c r="H280" s="4" t="inlineStr">
+        <is>
+          <t>10/01</t>
+        </is>
+      </c>
       <c r="I280" s="4" t="inlineStr">
         <is>
           <t>06/09</t>
         </is>
       </c>
-      <c r="J280" s="4" t="n"/>
+      <c r="J280" s="4" t="inlineStr">
+        <is>
+          <t>24/01</t>
+        </is>
+      </c>
       <c r="K280" s="4" t="n">
-        <v>52.61</v>
+        <v>49.64</v>
       </c>
     </row>
     <row r="281">
@@ -10120,22 +10236,32 @@
         </is>
       </c>
       <c r="C292" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D292" s="4" t="n">
-        <v>-26.79</v>
+        <v>74.65000000000001</v>
       </c>
       <c r="E292" s="4" t="n">
-        <v>22.222</v>
+        <v>30</v>
       </c>
       <c r="F292" s="4" t="n">
-        <v>0.77</v>
+        <v>1.64</v>
       </c>
       <c r="G292" s="4" t="n"/>
-      <c r="H292" s="4" t="n"/>
+      <c r="H292" s="4" t="inlineStr">
+        <is>
+          <t>10/01</t>
+        </is>
+      </c>
       <c r="I292" s="4" t="n"/>
-      <c r="J292" s="4" t="n"/>
-      <c r="K292" s="4" t="n"/>
+      <c r="J292" s="4" t="inlineStr">
+        <is>
+          <t>17/01</t>
+        </is>
+      </c>
+      <c r="K292" s="4" t="n">
+        <v>73.3</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="4" t="inlineStr">
@@ -10565,18 +10691,18 @@
         <v>12</v>
       </c>
       <c r="D306" s="4" t="n">
-        <v>235.18</v>
+        <v>198.34</v>
       </c>
       <c r="E306" s="4" t="n">
         <v>41.667</v>
       </c>
       <c r="F306" s="4" t="n">
-        <v>2.571</v>
+        <v>2.063</v>
       </c>
       <c r="G306" s="4" t="n"/>
       <c r="H306" s="4" t="inlineStr">
         <is>
-          <t>19/12</t>
+          <t>19/01</t>
         </is>
       </c>
       <c r="I306" s="4" t="n"/>
@@ -10586,7 +10712,7 @@
         </is>
       </c>
       <c r="K306" s="4" t="n">
-        <v>371.53</v>
+        <v>365.51</v>
       </c>
     </row>
     <row r="307">
@@ -10659,13 +10785,13 @@
         </is>
       </c>
       <c r="C309" s="4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D309" s="4" t="n">
         <v>48.5</v>
       </c>
       <c r="E309" s="4" t="n">
-        <v>41.667</v>
+        <v>38.462</v>
       </c>
       <c r="F309" s="4" t="n">
         <v>1.147</v>
@@ -10677,9 +10803,13 @@
         </is>
       </c>
       <c r="I309" s="4" t="n"/>
-      <c r="J309" s="4" t="n"/>
+      <c r="J309" s="4" t="inlineStr">
+        <is>
+          <t>16/01</t>
+        </is>
+      </c>
       <c r="K309" s="4" t="n">
-        <v>578.3</v>
+        <v>596.41</v>
       </c>
     </row>
     <row r="310">
@@ -10997,21 +11127,21 @@
         </is>
       </c>
       <c r="C319" s="4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D319" s="4" t="n">
-        <v>123.335</v>
+        <v>113.105</v>
       </c>
       <c r="E319" s="4" t="n">
-        <v>31.25</v>
+        <v>29.412</v>
       </c>
       <c r="F319" s="4" t="n">
-        <v>1.24</v>
+        <v>1.216</v>
       </c>
       <c r="G319" s="4" t="n"/>
       <c r="H319" s="4" t="inlineStr">
         <is>
-          <t>26/07</t>
+          <t>11/01</t>
         </is>
       </c>
       <c r="I319" s="4" t="inlineStr">
@@ -11021,11 +11151,11 @@
       </c>
       <c r="J319" s="4" t="inlineStr">
         <is>
-          <t>01/08</t>
+          <t>25/01</t>
         </is>
       </c>
       <c r="K319" s="4" t="n">
-        <v>32.1</v>
+        <v>38.05</v>
       </c>
     </row>
     <row r="320">
@@ -11314,11 +11444,11 @@
       <c r="I328" s="4" t="n"/>
       <c r="J328" s="4" t="inlineStr">
         <is>
-          <t>31/10</t>
+          <t>11/01</t>
         </is>
       </c>
       <c r="K328" s="4" t="n">
-        <v>108.04</v>
+        <v>105.9</v>
       </c>
     </row>
     <row r="329">
@@ -11545,23 +11675,27 @@
         </is>
       </c>
       <c r="C335" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D335" s="4" t="n">
-        <v>184.14</v>
+        <v>156.36</v>
       </c>
       <c r="E335" s="4" t="n">
-        <v>36.364</v>
+        <v>33.333</v>
       </c>
       <c r="F335" s="4" t="n">
-        <v>1.735</v>
+        <v>1.562</v>
       </c>
       <c r="G335" s="4" t="inlineStr">
         <is>
           <t>31/10</t>
         </is>
       </c>
-      <c r="H335" s="4" t="n"/>
+      <c r="H335" s="4" t="inlineStr">
+        <is>
+          <t>08/01</t>
+        </is>
+      </c>
       <c r="I335" s="4" t="inlineStr">
         <is>
           <t>04/12</t>
@@ -11569,11 +11703,11 @@
       </c>
       <c r="J335" s="4" t="inlineStr">
         <is>
-          <t>13/12</t>
+          <t>22/01</t>
         </is>
       </c>
       <c r="K335" s="4" t="n">
-        <v>166.72</v>
+        <v>170.44</v>
       </c>
     </row>
     <row r="336">
@@ -12126,13 +12260,13 @@
         </is>
       </c>
       <c r="C352" s="4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D352" s="4" t="n">
         <v>131.94</v>
       </c>
       <c r="E352" s="4" t="n">
-        <v>33.333</v>
+        <v>30.769</v>
       </c>
       <c r="F352" s="4" t="n">
         <v>1.553</v>
@@ -12144,9 +12278,13 @@
         </is>
       </c>
       <c r="I352" s="4" t="n"/>
-      <c r="J352" s="4" t="n"/>
+      <c r="J352" s="4" t="inlineStr">
+        <is>
+          <t>08/01</t>
+        </is>
+      </c>
       <c r="K352" s="4" t="n">
-        <v>196.5</v>
+        <v>204.14</v>
       </c>
     </row>
     <row r="353">
@@ -12161,13 +12299,13 @@
         </is>
       </c>
       <c r="C353" s="4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D353" s="4" t="n">
         <v>34.47</v>
       </c>
       <c r="E353" s="4" t="n">
-        <v>42.857</v>
+        <v>40</v>
       </c>
       <c r="F353" s="4" t="n">
         <v>1.18</v>
@@ -12187,9 +12325,13 @@
           <t>21/10</t>
         </is>
       </c>
-      <c r="J353" s="4" t="n"/>
+      <c r="J353" s="4" t="inlineStr">
+        <is>
+          <t>17/01</t>
+        </is>
+      </c>
       <c r="K353" s="4" t="n">
-        <v>119.86</v>
+        <v>120.11</v>
       </c>
     </row>
     <row r="354">
@@ -12340,20 +12482,20 @@
         </is>
       </c>
       <c r="C358" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D358" s="4" t="n">
-        <v>142.49</v>
+        <v>112.19</v>
       </c>
       <c r="E358" s="4" t="n">
-        <v>50</v>
+        <v>45.455</v>
       </c>
       <c r="F358" s="4" t="n">
-        <v>3.614</v>
+        <v>2.323</v>
       </c>
       <c r="G358" s="4" t="inlineStr">
         <is>
-          <t>30/08</t>
+          <t>26/01</t>
         </is>
       </c>
       <c r="H358" s="4" t="inlineStr">
@@ -12372,7 +12514,7 @@
         </is>
       </c>
       <c r="K358" s="4" t="n">
-        <v>177.92</v>
+        <v>167.86</v>
       </c>
     </row>
     <row r="359">
@@ -12406,12 +12548,12 @@
       <c r="H359" s="4" t="n"/>
       <c r="I359" s="4" t="inlineStr">
         <is>
-          <t>13/10</t>
+          <t>10/01</t>
         </is>
       </c>
       <c r="J359" s="4" t="n"/>
       <c r="K359" s="4" t="n">
-        <v>28.16</v>
+        <v>28.99</v>
       </c>
     </row>
     <row r="360">
@@ -13185,13 +13327,13 @@
         </is>
       </c>
       <c r="C383" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D383" s="4" t="n">
         <v>246.85</v>
       </c>
       <c r="E383" s="4" t="n">
-        <v>25</v>
+        <v>22.222</v>
       </c>
       <c r="F383" s="4" t="n">
         <v>2.629</v>
@@ -13207,9 +13349,13 @@
         </is>
       </c>
       <c r="I383" s="4" t="n"/>
-      <c r="J383" s="4" t="n"/>
+      <c r="J383" s="4" t="inlineStr">
+        <is>
+          <t>18/01</t>
+        </is>
+      </c>
       <c r="K383" s="4" t="n">
-        <v>119</v>
+        <v>125.28</v>
       </c>
     </row>
     <row r="384">
@@ -15635,31 +15781,31 @@
         </is>
       </c>
       <c r="C461" s="4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D461" s="4" t="n">
-        <v>387.62</v>
+        <v>381.22</v>
       </c>
       <c r="E461" s="4" t="n">
-        <v>41.667</v>
+        <v>38.462</v>
       </c>
       <c r="F461" s="4" t="n">
-        <v>3.387</v>
+        <v>3.258</v>
       </c>
       <c r="G461" s="4" t="inlineStr">
         <is>
-          <t>29/09</t>
+          <t>13/01</t>
         </is>
       </c>
       <c r="H461" s="4" t="n"/>
       <c r="I461" s="4" t="inlineStr">
         <is>
-          <t>04/10</t>
+          <t>25/01</t>
         </is>
       </c>
       <c r="J461" s="4" t="n"/>
       <c r="K461" s="4" t="n">
-        <v>201.31</v>
+        <v>203.04</v>
       </c>
     </row>
     <row r="462">
@@ -15824,30 +15970,30 @@
       <c r="K466" s="4" t="n"/>
     </row>
     <row r="467">
-      <c r="A467" s="5" t="inlineStr">
+      <c r="A467" s="4" t="inlineStr">
         <is>
           <t>WAT</t>
         </is>
       </c>
-      <c r="B467" s="5" t="inlineStr">
-        <is>
-          <t>.SPX</t>
-        </is>
-      </c>
-      <c r="C467" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D467" s="5" t="n">
+      <c r="B467" s="4" t="inlineStr">
+        <is>
+          <t>.SPX</t>
+        </is>
+      </c>
+      <c r="C467" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D467" s="4" t="n">
         <v>348.77</v>
       </c>
-      <c r="E467" s="5" t="n">
-        <v>50</v>
+      <c r="E467" s="4" t="n">
+        <v>46.154</v>
       </c>
       <c r="F467" s="4" t="n">
         <v>2.704</v>
       </c>
       <c r="G467" s="4" t="n"/>
-      <c r="H467" s="5" t="inlineStr">
+      <c r="H467" s="4" t="inlineStr">
         <is>
           <t>05/01</t>
         </is>
@@ -15855,11 +16001,11 @@
       <c r="I467" s="4" t="n"/>
       <c r="J467" s="4" t="inlineStr">
         <is>
-          <t>03/08</t>
+          <t>19/01</t>
         </is>
       </c>
       <c r="K467" s="4" t="n">
-        <v>305.07</v>
+        <v>312.45</v>
       </c>
     </row>
     <row r="468">
@@ -15975,13 +16121,13 @@
         </is>
       </c>
       <c r="C471" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D471" s="4" t="n">
         <v>234.82</v>
       </c>
       <c r="E471" s="4" t="n">
-        <v>54.545</v>
+        <v>50</v>
       </c>
       <c r="F471" s="4" t="n">
         <v>1.736</v>
@@ -15995,11 +16141,11 @@
       <c r="I471" s="4" t="n"/>
       <c r="J471" s="4" t="inlineStr">
         <is>
-          <t>29/08</t>
+          <t>16/01</t>
         </is>
       </c>
       <c r="K471" s="4" t="n">
-        <v>50.02</v>
+        <v>52.23</v>
       </c>
     </row>
     <row r="472">
@@ -16172,15 +16318,19 @@
         <v>12</v>
       </c>
       <c r="D477" s="4" t="n">
-        <v>429.66</v>
+        <v>449.26</v>
       </c>
       <c r="E477" s="4" t="n">
-        <v>41.667</v>
+        <v>50</v>
       </c>
       <c r="F477" s="4" t="n">
-        <v>3.425</v>
-      </c>
-      <c r="G477" s="4" t="n"/>
+        <v>3.535</v>
+      </c>
+      <c r="G477" s="4" t="inlineStr">
+        <is>
+          <t>26/01</t>
+        </is>
+      </c>
       <c r="H477" s="4" t="inlineStr">
         <is>
           <t>06/12</t>
@@ -16193,7 +16343,7 @@
         </is>
       </c>
       <c r="K477" s="4" t="n">
-        <v>35.14</v>
+        <v>34.87</v>
       </c>
     </row>
     <row r="478">
@@ -16448,17 +16598,17 @@
         <v>8</v>
       </c>
       <c r="D485" s="4" t="n">
-        <v>103.4</v>
+        <v>88.8</v>
       </c>
       <c r="E485" s="4" t="n">
         <v>37.5</v>
       </c>
       <c r="F485" s="4" t="n">
-        <v>1.976</v>
+        <v>1.737</v>
       </c>
       <c r="G485" s="4" t="inlineStr">
         <is>
-          <t>18/12</t>
+          <t>24/01</t>
         </is>
       </c>
       <c r="H485" s="4" t="inlineStr">
@@ -16473,7 +16623,7 @@
       </c>
       <c r="J485" s="4" t="n"/>
       <c r="K485" s="4" t="n">
-        <v>100.19</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="486">
@@ -16697,13 +16847,13 @@
         </is>
       </c>
       <c r="C493" s="4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D493" s="4" t="n">
         <v>441.51</v>
       </c>
       <c r="E493" s="4" t="n">
-        <v>41.667</v>
+        <v>38.462</v>
       </c>
       <c r="F493" s="4" t="n">
         <v>2.222</v>
@@ -16717,11 +16867,11 @@
       <c r="I493" s="4" t="n"/>
       <c r="J493" s="4" t="inlineStr">
         <is>
-          <t>04/11</t>
+          <t>08/01</t>
         </is>
       </c>
       <c r="K493" s="4" t="n">
-        <v>210.33</v>
+        <v>218.1</v>
       </c>
     </row>
     <row r="494">
